--- a/input_data/consumption_data_manuscript_1.xlsx
+++ b/input_data/consumption_data_manuscript_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F13097-F5F1-48E2-8ABA-46F6F7EFCB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E0B58-7452-4652-BAA5-44B73C7BE064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,138 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-days</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-C/C0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mmol/L</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mg C/L</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{1E1457FC-CB2F-4AD4-B476-E7A314C833AD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mmol/L</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="213">
   <si>
     <t>SampleID</t>
   </si>
@@ -808,26 +678,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -864,9 +721,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1020,7 @@
     <col min="19" max="19" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1182,7 @@
       <c r="X2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2" s="2">
@@ -1340,15 +1197,14 @@
       <c r="AC2" s="3">
         <v>16.083333333333336</v>
       </c>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1413,10 +1269,10 @@
         <v>0.99905812820537254</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.71822777573289454</v>
+        <v>-4.4311398328234775E-2</v>
       </c>
       <c r="W3" s="1">
-        <v>0.15954462758853821</v>
+        <v>9.8427123504630804E-3</v>
       </c>
       <c r="X3" t="s">
         <v>8</v>
@@ -1436,15 +1292,14 @@
       <c r="AC3" s="3">
         <v>25.5625</v>
       </c>
+      <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1509,19 +1364,19 @@
         <v>0.78692347406358931</v>
       </c>
       <c r="V4" s="1">
-        <v>-1.4733824293955022</v>
+        <v>-9.4021645596547687E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>0.33565506291498881</v>
+        <v>2.1357201448081547E-2</v>
       </c>
       <c r="X4" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="7">
-        <v>0.27828593602749674</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>3.1449076687363922E-2</v>
+      <c r="Y4">
+        <v>-6.4498379849328602E-2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4.8645360037861112E-3</v>
       </c>
       <c r="AA4" t="s">
         <v>8</v>
@@ -1532,15 +1387,14 @@
       <c r="AC4" s="3">
         <v>25.024999999999999</v>
       </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1605,10 +1459,10 @@
         <v>0.60603671220586197</v>
       </c>
       <c r="V5" s="1">
-        <v>-6.1454448788185019</v>
+        <v>-0.42667055478228089</v>
       </c>
       <c r="W5" s="1">
-        <v>1.1580658702469107</v>
+        <v>7.9890633788791063E-2</v>
       </c>
       <c r="X5" t="s">
         <v>8</v>
@@ -1628,15 +1482,14 @@
       <c r="AC5" s="3">
         <v>25.074999999999999</v>
       </c>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1701,19 +1554,19 @@
         <v>0.72293123659831104</v>
       </c>
       <c r="V6" s="1">
-        <v>-6.9719914964785499</v>
+        <v>-0.48822403077543497</v>
       </c>
       <c r="W6" s="1">
-        <v>1.6730029770038688</v>
+        <v>0.11813561936049588</v>
       </c>
       <c r="X6" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="7">
-        <v>-2.087144520206218</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>2.0949923393274736</v>
+      <c r="Y6">
+        <v>-0.52501264630852851</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.3055411442735374</v>
       </c>
       <c r="AA6" t="s">
         <v>8</v>
@@ -1724,15 +1577,14 @@
       <c r="AC6" s="3">
         <v>24.225000000000001</v>
       </c>
+      <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1797,19 +1649,19 @@
         <v>0.78838845918548417</v>
       </c>
       <c r="V7" s="1">
-        <v>-7.7824749222391736</v>
+        <v>-0.55208850425718059</v>
       </c>
       <c r="W7" s="1">
-        <v>2.0505454284504605</v>
+        <v>0.1479029901745085</v>
       </c>
       <c r="X7" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="7">
-        <v>-0.97400077609623281</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1.4660108055801953</v>
+      <c r="Y7">
+        <v>-0.41115113613317944</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.20628046817841592</v>
       </c>
       <c r="AA7" t="s">
         <v>8</v>
@@ -1820,15 +1672,14 @@
       <c r="AC7" s="3">
         <v>34.072916666666664</v>
       </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1893,10 +1744,10 @@
         <v>0.79811597902560227</v>
       </c>
       <c r="V8" s="1">
-        <v>-8.4075238759960982</v>
+        <v>-0.60517364283430908</v>
       </c>
       <c r="W8" s="1">
-        <v>2.3308327408962835</v>
+        <v>0.17168584141058016</v>
       </c>
       <c r="X8" t="s">
         <v>8</v>
@@ -1916,15 +1767,14 @@
       <c r="AC8" s="3">
         <v>22.55</v>
       </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1989,19 +1839,19 @@
         <v>0.73037603611282509</v>
       </c>
       <c r="V9" s="1">
-        <v>-8.7658992263039472</v>
+        <v>-0.63741682932384314</v>
       </c>
       <c r="W9" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.19273772007607273</v>
       </c>
       <c r="X9" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="7">
-        <v>-1.2977437773712461</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>2.9029916942182079</v>
+      <c r="Y9">
+        <v>-0.59784908688218508</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.37950623314897097</v>
       </c>
       <c r="AA9" t="s">
         <v>8</v>
@@ -2012,15 +1862,14 @@
       <c r="AC9" s="3">
         <v>22.337499999999999</v>
       </c>
+      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2085,19 +1934,19 @@
         <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>-8.7658992263039472</v>
+        <v>-0.63741682932384314</v>
       </c>
       <c r="W10" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.19273772007607273</v>
       </c>
       <c r="X10" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="7">
-        <v>-1.9483711218286262</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>2.2861059591968389</v>
+      <c r="Y10">
+        <v>-0.68258053870291213</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.29791480718373076</v>
       </c>
       <c r="AA10" t="s">
         <v>8</v>
@@ -2108,15 +1957,14 @@
       <c r="AC10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2181,10 +2029,10 @@
         <v>0.90317018675169636</v>
       </c>
       <c r="V11" s="1">
-        <v>-8.8643503858509938</v>
+        <v>-0.64686373948654863</v>
       </c>
       <c r="W11" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.20555745334992287</v>
       </c>
       <c r="X11" t="s">
         <v>8</v>
@@ -2204,15 +2052,14 @@
       <c r="AC11" s="3">
         <v>27.475000000000001</v>
       </c>
+      <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2277,19 +2124,19 @@
         <v>0.80149297235406247</v>
       </c>
       <c r="V12" s="1">
-        <v>-8.9884657255591947</v>
+        <v>-0.65943100334899052</v>
       </c>
       <c r="W12" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.2099014595830902</v>
       </c>
       <c r="X12" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="7">
-        <v>-1.9213925383890436</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>2.3731957100233849</v>
+      <c r="Y12">
+        <v>-0.73409688787333316</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.30622747344426793</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
@@ -2300,15 +2147,14 @@
       <c r="AC12" s="3">
         <v>25.32</v>
       </c>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2373,10 +2219,10 @@
         <v>0.91832725129170201</v>
       </c>
       <c r="V13" s="1">
-        <v>-9.0725564325780219</v>
+        <v>-0.66834005264520502</v>
       </c>
       <c r="W13" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.2131984760745701</v>
       </c>
       <c r="X13" t="s">
         <v>8</v>
@@ -2396,15 +2242,14 @@
       <c r="AC13" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2469,19 +2314,19 @@
         <v>0.85799617781356674</v>
       </c>
       <c r="V14" s="1">
-        <v>-9.1523595187705649</v>
+        <v>-0.67700615069879633</v>
       </c>
       <c r="W14" s="1">
-        <v>2.5651009574688119</v>
+        <v>0.21579830549064749</v>
       </c>
       <c r="X14" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="7">
-        <v>-2.0477853539553159</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>2.4207725183452951</v>
+      <c r="Y14">
+        <v>-0.82181456123841179</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.29401085436853391</v>
       </c>
       <c r="AA14" t="s">
         <v>8</v>
@@ -2492,15 +2337,14 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2576,8 +2420,8 @@
       <c r="Y15" s="7">
         <v>0</v>
       </c>
-      <c r="Z15" s="2">
-        <v>0.45964035158454963</v>
+      <c r="Z15" s="1">
+        <v>7.5683972068831068E-2</v>
       </c>
       <c r="AA15" t="s">
         <v>8</v>
@@ -2588,15 +2432,14 @@
       <c r="AC15" s="3">
         <v>20.375</v>
       </c>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2661,10 +2504,10 @@
         <v>0.78987515317193324</v>
       </c>
       <c r="V16" s="1">
-        <v>-1.1197049985575935</v>
+        <v>-6.7655810940670413E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>0.28958673120445511</v>
+        <v>1.7490763147835882E-2</v>
       </c>
       <c r="X16" t="s">
         <v>8</v>
@@ -2684,15 +2527,14 @@
       <c r="AC16" s="3">
         <v>37.0625</v>
       </c>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2757,19 +2599,19 @@
         <v>0.58700789940686837</v>
       </c>
       <c r="V17" s="1">
-        <v>-5.2273483247978207</v>
+        <v>-0.32993249226023719</v>
       </c>
       <c r="W17" s="1">
-        <v>1.0982463794939958</v>
+        <v>6.9139764145064092E-2</v>
       </c>
       <c r="X17" t="s">
         <v>8</v>
       </c>
-      <c r="Y17" s="7">
-        <v>6.9571484006873519E-2</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>2.3804531892589305</v>
+      <c r="Y17">
+        <v>-8.0536190124027351E-2</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.37180747120551005</v>
       </c>
       <c r="AA17" t="s">
         <v>8</v>
@@ -2780,15 +2622,14 @@
       <c r="AC17" s="3">
         <v>36.424999999999997</v>
       </c>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2853,10 +2694,10 @@
         <v>0.41378321934941076</v>
       </c>
       <c r="V18" s="1">
-        <v>-10.470281843575199</v>
+        <v>-0.69075556665130422</v>
       </c>
       <c r="W18" s="1">
-        <v>2.0693001794523176</v>
+        <v>0.13593336783581725</v>
       </c>
       <c r="X18" t="s">
         <v>8</v>
@@ -2876,15 +2717,14 @@
       <c r="AC18" s="3">
         <v>34.549999999999997</v>
       </c>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2949,19 +2789,19 @@
         <v>0.45930094923514875</v>
       </c>
       <c r="V19" s="1">
-        <v>-12.37901164882982</v>
+        <v>-0.82968756110846109</v>
       </c>
       <c r="W19" s="1">
-        <v>2.7528659257685231</v>
+        <v>0.18567449385064894</v>
       </c>
       <c r="X19" t="s">
         <v>8</v>
       </c>
-      <c r="Y19" s="7">
-        <v>-2.5741449082543371</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>5.2495766470445924</v>
+      <c r="Y19">
+        <v>-0.57645860913775682</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.7728214717280445</v>
       </c>
       <c r="AA19" t="s">
         <v>8</v>
@@ -2972,15 +2812,14 @@
       <c r="AC19" s="3">
         <v>35.625</v>
       </c>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3045,19 +2884,19 @@
         <v>0.46151879844086957</v>
       </c>
       <c r="V20" s="1">
-        <v>-15.011631351099892</v>
+        <v>-1.0344387551899521</v>
       </c>
       <c r="W20" s="1">
-        <v>3.5931575479912992</v>
+        <v>0.25106289111171132</v>
       </c>
       <c r="X20" t="s">
         <v>8</v>
       </c>
-      <c r="Y20" s="7">
-        <v>-3.7568601363711966</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>6.265623740020966</v>
+      <c r="Y20">
+        <v>-0.79439231672337873</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.891260249070847</v>
       </c>
       <c r="AA20" t="s">
         <v>8</v>
@@ -3068,15 +2907,14 @@
       <c r="AC20" s="3">
         <v>35.375</v>
       </c>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3141,10 +2979,10 @@
         <v>0.4123634350802956</v>
       </c>
       <c r="V21" s="1">
-        <v>-16.672848499564527</v>
+        <v>-1.1717957670185455</v>
       </c>
       <c r="W21" s="1">
-        <v>4.4805042701626192</v>
+        <v>0.32442354941291629</v>
       </c>
       <c r="X21" t="s">
         <v>8</v>
@@ -3164,15 +3002,14 @@
       <c r="AC21" s="3">
         <v>22.55</v>
       </c>
+      <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3237,19 +3074,19 @@
         <v>0.38774874341609261</v>
       </c>
       <c r="V22" s="1">
-        <v>-18.094123001214768</v>
+        <v>-1.297387011570954</v>
       </c>
       <c r="W22" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.40190919123965174</v>
       </c>
       <c r="X22" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="7">
-        <v>-4.2514367019605661</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>6.3623901298282393</v>
+      <c r="Y22">
+        <v>-0.94785447510413556</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.83875223017141864</v>
       </c>
       <c r="AA22" t="s">
         <v>8</v>
@@ -3260,15 +3097,14 @@
       <c r="AC22" s="3">
         <v>34.28125</v>
       </c>
+      <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3333,19 +3169,19 @@
         <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>-18.094123001214768</v>
+        <v>-1.297387011570954</v>
       </c>
       <c r="W23" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.40190919123965174</v>
       </c>
       <c r="X23" t="s">
         <v>8</v>
       </c>
-      <c r="Y23" s="7">
-        <v>-4.4838036106953449</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>6.8704136763164261</v>
+      <c r="Y23">
+        <v>-0.97813889658138486</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.90492440479364067</v>
       </c>
       <c r="AA23" t="s">
         <v>8</v>
@@ -3356,15 +3192,14 @@
       <c r="AC23" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3429,10 +3264,10 @@
         <v>0.7657975788996414</v>
       </c>
       <c r="V24" s="1">
-        <v>-18.418648713420382</v>
+        <v>-1.3282108775275714</v>
       </c>
       <c r="W24" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.45287062367727521</v>
       </c>
       <c r="X24" t="s">
         <v>8</v>
@@ -3452,15 +3287,14 @@
       <c r="AC24" s="3">
         <v>39.625</v>
       </c>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3525,19 +3359,19 @@
         <v>0.64035573554491543</v>
       </c>
       <c r="V25" s="1">
-        <v>-18.981270728543912</v>
+        <v>-1.3841816841690981</v>
       </c>
       <c r="W25" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.47623457421475457</v>
       </c>
       <c r="X25" t="s">
         <v>8</v>
       </c>
-      <c r="Y25" s="7">
-        <v>-4.3228560341482352</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>7.1849044431900655</v>
+      <c r="Y25">
+        <v>-1.014125631370498</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.8986372377359293</v>
       </c>
       <c r="AA25" t="s">
         <v>8</v>
@@ -3548,15 +3382,14 @@
       <c r="AC25" s="3">
         <v>35.480000000000004</v>
       </c>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3621,10 +3454,10 @@
         <v>0.67951462072701063</v>
       </c>
       <c r="V26" s="1">
-        <v>-19.560427779007075</v>
+        <v>-1.4446142812911917</v>
       </c>
       <c r="W26" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.49531738835388917</v>
       </c>
       <c r="X26" t="s">
         <v>8</v>
@@ -3644,15 +3477,14 @@
       <c r="AC26" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3717,19 +3549,19 @@
         <v>0.65513822611515415</v>
       </c>
       <c r="V27" s="1">
-        <v>-20.133532924476203</v>
+        <v>-1.5062950757348426</v>
       </c>
       <c r="W27" s="1">
-        <v>5.3571893820783441</v>
+        <v>0.5119734477917619</v>
       </c>
       <c r="X27" t="s">
         <v>8</v>
       </c>
-      <c r="Y27" s="7">
-        <v>-5.6984866123399307</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>7.8138859769373434</v>
+      <c r="Y27">
+        <v>-1.2376109589309732</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.90868877278239113</v>
       </c>
       <c r="AA27" t="s">
         <v>8</v>
@@ -3740,15 +3572,14 @@
       <c r="AC27" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3836,15 +3667,14 @@
       <c r="AC28" s="3">
         <v>14.316666666666666</v>
       </c>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3909,10 +3739,10 @@
         <v>1.0345267686670474</v>
       </c>
       <c r="V29" s="1">
-        <v>-2.8735060359648914</v>
+        <v>-0.18214103026391543</v>
       </c>
       <c r="W29" s="1">
-        <v>0.39889849584927528</v>
+        <v>2.5284715638439988E-2</v>
       </c>
       <c r="X29" t="s">
         <v>8</v>
@@ -3932,15 +3762,14 @@
       <c r="AC29" s="1">
         <v>7.9375</v>
       </c>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4005,10 +3834,10 @@
         <v>0.78852881690880172</v>
       </c>
       <c r="V30" s="1">
-        <v>-7.6270414870601453</v>
+        <v>-0.5046279695338094</v>
       </c>
       <c r="W30" s="1">
-        <v>1.3857221241768025</v>
+        <v>9.2227409708855762E-2</v>
       </c>
       <c r="X30" t="s">
         <v>8</v>
@@ -4028,15 +3857,14 @@
       <c r="AC30" s="1">
         <v>8.0500000000000007</v>
       </c>
+      <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -4101,10 +3929,10 @@
         <v>0.33876423723955906</v>
       </c>
       <c r="V31" s="1">
-        <v>-11.798363162796942</v>
+        <v>-0.80672888672421528</v>
       </c>
       <c r="W31" s="1">
-        <v>3.1581650804589483</v>
+        <v>0.22047985315861623</v>
       </c>
       <c r="X31" t="s">
         <v>8</v>
@@ -4124,15 +3952,14 @@
       <c r="AC31" s="3">
         <v>14.824999999999999</v>
       </c>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -4197,19 +4024,19 @@
         <v>0.58948099772986118</v>
       </c>
       <c r="V32" s="1">
-        <v>-12.445547728379507</v>
+        <v>-0.85659687595597567</v>
       </c>
       <c r="W32" s="1">
-        <v>3.9016980250397877</v>
+        <v>0.27774459979581434</v>
       </c>
       <c r="X32" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="7">
-        <v>-2.0871445202062215</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>2.7941295056850253</v>
+      <c r="Y32">
+        <v>-0.5345936758232841</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.40010627569006624</v>
       </c>
       <c r="AA32" t="s">
         <v>8</v>
@@ -4220,15 +4047,14 @@
       <c r="AC32" s="3">
         <v>14.65</v>
       </c>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4293,19 +4119,19 @@
         <v>0.36233609938124289</v>
       </c>
       <c r="V33" s="1">
-        <v>-12.929330859123098</v>
+        <v>-0.89560025938280741</v>
       </c>
       <c r="W33" s="1">
-        <v>4.6193698461105184</v>
+        <v>0.33569166690855201</v>
       </c>
       <c r="X33" t="s">
         <v>8</v>
       </c>
-      <c r="Y33" s="7">
-        <v>-1.1131437441099834</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>2.9489557293766628</v>
+      <c r="Y33">
+        <v>-0.44454588393460848</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.41053545461629753</v>
       </c>
       <c r="AA33" t="s">
         <v>8</v>
@@ -4316,15 +4142,14 @@
       <c r="AC33" s="3">
         <v>14.175000000000001</v>
       </c>
+      <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4389,10 +4214,10 @@
         <v>0.3234249209070329</v>
       </c>
       <c r="V34" s="1">
-        <v>-13.144614557453318</v>
+        <v>-0.91417838767726955</v>
       </c>
       <c r="W34" s="1">
-        <v>5.0783340118989067</v>
+        <v>0.37530560004134184</v>
       </c>
       <c r="X34" t="s">
         <v>8</v>
@@ -4412,15 +4237,14 @@
       <c r="AC34" s="3">
         <v>13.125</v>
       </c>
+      <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -4485,19 +4309,19 @@
         <v>0.36232267044434863</v>
       </c>
       <c r="V35" s="1">
-        <v>-13.423986903923771</v>
+        <v>-0.93974193128978523</v>
       </c>
       <c r="W35" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.40127287032532777</v>
       </c>
       <c r="X35" t="s">
         <v>8</v>
       </c>
-      <c r="Y35" s="7">
-        <v>-1.50673540661899</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>3.3384404483509393</v>
+      <c r="Y35">
+        <v>-0.63091107937134849</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.4297690815851134</v>
       </c>
       <c r="AA35" t="s">
         <v>8</v>
@@ -4508,15 +4332,14 @@
       <c r="AC35" s="3">
         <v>12.25</v>
       </c>
+      <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4581,19 +4404,19 @@
         <v>1</v>
       </c>
       <c r="V36" s="1">
-        <v>-13.423986903923771</v>
+        <v>-0.93974193128978523</v>
       </c>
       <c r="W36" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.40127287032532777</v>
       </c>
       <c r="X36" t="s">
         <v>8</v>
       </c>
-      <c r="Y36" s="7">
-        <v>-2.1108893693294135</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>3.0239496814772999</v>
+      <c r="Y36">
+        <v>-0.70840766174268666</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0.38783750548101364</v>
       </c>
       <c r="AA36" t="s">
         <v>8</v>
@@ -4604,15 +4427,14 @@
       <c r="AC36" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4677,10 +4499,10 @@
         <v>0.86160177217880407</v>
       </c>
       <c r="V37" s="1">
-        <v>-13.3432401308508</v>
+        <v>-0.9318856492967903</v>
       </c>
       <c r="W37" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.41579452287772217</v>
       </c>
       <c r="X37" t="s">
         <v>8</v>
@@ -4700,15 +4522,14 @@
       <c r="AC37" s="3">
         <v>16.637499999999999</v>
       </c>
+      <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -4773,19 +4594,19 @@
         <v>0.8174486132724208</v>
       </c>
       <c r="V38" s="1">
-        <v>-13.487172895047944</v>
+        <v>-0.94689807183914076</v>
       </c>
       <c r="W38" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.41882329813835817</v>
       </c>
       <c r="X38" t="s">
         <v>8</v>
       </c>
-      <c r="Y38" s="7">
-        <v>-2.298907921725152</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>3.1787759051689379</v>
+      <c r="Y38">
+        <v>-0.78699866385693429</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.39510260831611088</v>
       </c>
       <c r="AA38" t="s">
         <v>8</v>
@@ -4796,15 +4617,14 @@
       <c r="AC38" s="3">
         <v>14.36</v>
       </c>
+      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -4869,10 +4689,10 @@
         <v>0.90541376866518308</v>
       </c>
       <c r="V39" s="1">
-        <v>-13.654513196866088</v>
+        <v>-0.96494994195506789</v>
       </c>
       <c r="W39" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.42027035820864256</v>
       </c>
       <c r="X39" t="s">
         <v>8</v>
@@ -4892,15 +4712,14 @@
       <c r="AC39" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -4965,19 +4784,19 @@
         <v>0.89836917745162381</v>
       </c>
       <c r="V40" s="1">
-        <v>-13.65246170364777</v>
+        <v>-0.96478800907799078</v>
       </c>
       <c r="W40" s="1">
-        <v>5.3610831162067099</v>
+        <v>0.42132830666162313</v>
       </c>
       <c r="X40" t="s">
         <v>8</v>
       </c>
-      <c r="Y40" s="7">
-        <v>-2.7443317257054165</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>3.3223127167163939</v>
+      <c r="Y40">
+        <v>-0.92560026760782965</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0.38651360659829631</v>
       </c>
       <c r="AA40" t="s">
         <v>8</v>
@@ -4988,15 +4807,14 @@
       <c r="AC40" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -5084,15 +4902,14 @@
       <c r="AC41" s="3">
         <v>16.399999999999999</v>
       </c>
+      <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -5157,10 +4974,10 @@
         <v>1.0476545273268723</v>
       </c>
       <c r="V42" s="1">
-        <v>-1.157698652960832</v>
+        <v>-7.4537587164282715E-2</v>
       </c>
       <c r="W42" s="1">
-        <v>0.22966876877706099</v>
+        <v>1.4787056914898952E-2</v>
       </c>
       <c r="X42" t="s">
         <v>8</v>
@@ -5180,15 +4997,14 @@
       <c r="AC42" s="1">
         <v>7.5136363636363637</v>
       </c>
+      <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -5253,10 +5069,10 @@
         <v>0.80751498225697826</v>
       </c>
       <c r="V43" s="1">
-        <v>-5.7043820428531493</v>
+        <v>-0.38542165584287802</v>
       </c>
       <c r="W43" s="1">
-        <v>0.90461208909667856</v>
+        <v>6.0936988096575689E-2</v>
       </c>
       <c r="X43" t="s">
         <v>8</v>
@@ -5264,8 +5080,8 @@
       <c r="Y43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z43" s="2">
-        <v>1.509555680993468</v>
+      <c r="Z43" s="1">
+        <v>0.22897841731369978</v>
       </c>
       <c r="AA43" t="s">
         <v>8</v>
@@ -5276,15 +5092,14 @@
       <c r="AC43" s="1">
         <v>6.5750000000000002</v>
       </c>
+      <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -5349,10 +5164,10 @@
         <v>0.75596778719161639</v>
       </c>
       <c r="V44" s="1">
-        <v>-8.4820218007260735</v>
+        <v>-0.58643318428955338</v>
       </c>
       <c r="W44" s="1">
-        <v>1.7643067341782994</v>
+        <v>0.12315115179993982</v>
       </c>
       <c r="X44" t="s">
         <v>8</v>
@@ -5372,15 +5187,14 @@
       <c r="AC44" s="1">
         <v>7.8999999999999995</v>
       </c>
+      <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -5445,19 +5259,19 @@
         <v>0.79222645314035389</v>
       </c>
       <c r="V45" s="1">
-        <v>-9.1795294949539628</v>
+        <v>-0.64039057718686521</v>
       </c>
       <c r="W45" s="1">
-        <v>2.6049553162210621</v>
+        <v>0.18818155390906624</v>
       </c>
       <c r="X45" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="1">
-        <v>-2.0613670380841498</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>2.7022014353681154</v>
+      <c r="Y45">
+        <v>-0.52289468502339498</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0.38561647663561255</v>
       </c>
       <c r="AA45" t="s">
         <v>8</v>
@@ -5468,15 +5282,14 @@
       <c r="AC45" s="1">
         <v>6.7750000000000004</v>
       </c>
+      <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -5541,19 +5354,19 @@
         <v>0.87924076611366453</v>
       </c>
       <c r="V46" s="1">
-        <v>-9.6119022056465226</v>
+        <v>-0.67599521002240781</v>
       </c>
       <c r="W46" s="1">
-        <v>2.9460242697391905</v>
+        <v>0.21626758839113264</v>
       </c>
       <c r="X46" t="s">
         <v>8</v>
       </c>
-      <c r="Y46" s="1">
-        <v>-2.3399301513387645</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>2.811063623901298</v>
+      <c r="Y46">
+        <v>-0.61824443354174907</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0.38712532775341224</v>
       </c>
       <c r="AA46" t="s">
         <v>8</v>
@@ -5564,15 +5377,14 @@
       <c r="AC46" s="3">
         <v>13.074999999999999</v>
       </c>
+      <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -5637,10 +5449,10 @@
         <v>0.87233610308151188</v>
       </c>
       <c r="V47" s="1">
-        <v>-9.9247959513042794</v>
+        <v>-0.70347882695165787</v>
       </c>
       <c r="W47" s="1">
-        <v>3.1806761155435446</v>
+        <v>0.23687477624717265</v>
       </c>
       <c r="X47" t="s">
         <v>8</v>
@@ -5660,15 +5472,14 @@
       <c r="AC47" s="1">
         <v>7.25</v>
       </c>
+      <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -5733,19 +5544,19 @@
         <v>0.8774578972712731</v>
       </c>
       <c r="V48" s="1">
-        <v>-13.246307076285309</v>
+        <v>-1.0116878380612064</v>
       </c>
       <c r="W48" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.25551672579360674</v>
       </c>
       <c r="X48" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="1">
-        <v>-4.6798603026775307</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>4.9592774776227717</v>
+      <c r="Y48">
+        <v>-1.0327795501323318</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0.63103774989064587</v>
       </c>
       <c r="AA48" t="s">
         <v>8</v>
@@ -5756,15 +5567,14 @@
       <c r="AC48" s="1">
         <v>9</v>
       </c>
+      <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5829,19 +5639,19 @@
         <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>-13.246307076285309</v>
+        <v>-1.0116878380612064</v>
       </c>
       <c r="W49" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.25551672579360674</v>
       </c>
       <c r="X49" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="1">
-        <v>-4.8469981706302994</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>4.6738166276913153</v>
+      <c r="Y49">
+        <v>-1.0540178031550789</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0.59468047335614527</v>
       </c>
       <c r="AA49" t="s">
         <v>8</v>
@@ -5852,15 +5662,14 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -5925,10 +5734,10 @@
         <v>0.93674365516161862</v>
       </c>
       <c r="V50" s="1">
-        <v>-13.572617587590862</v>
+        <v>-1.0440943759087511</v>
       </c>
       <c r="W50" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.27144596734780196</v>
       </c>
       <c r="X50" t="s">
         <v>8</v>
@@ -5948,15 +5757,14 @@
       <c r="AC50" s="3">
         <v>13.171875</v>
       </c>
+      <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -6021,19 +5829,19 @@
         <v>0.86319457330852245</v>
       </c>
       <c r="V51" s="1">
-        <v>-13.724797354525638</v>
+        <v>-1.0599669743151297</v>
       </c>
       <c r="W51" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.27500799411608173</v>
       </c>
       <c r="X51" t="s">
         <v>8</v>
       </c>
-      <c r="Y51" s="1">
-        <v>-4.5684350573756838</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>5.0076606725264083</v>
+      <c r="Y51">
+        <v>-1.0715780663269272</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0.61522439038435661</v>
       </c>
       <c r="AA51" t="s">
         <v>8</v>
@@ -6044,15 +5852,14 @@
       <c r="AC51" s="3">
         <v>11.44</v>
       </c>
+      <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -6117,10 +5924,10 @@
         <v>0.98119121097082196</v>
       </c>
       <c r="V52" s="1">
-        <v>-13.830018441693133</v>
+        <v>-1.0714667241827889</v>
       </c>
       <c r="W52" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.27692050857057837</v>
       </c>
       <c r="X52" t="s">
         <v>8</v>
@@ -6140,15 +5947,14 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -6213,19 +6019,19 @@
         <v>0.93395975752742766</v>
       </c>
       <c r="V53" s="1">
-        <v>-13.863621900609171</v>
+        <v>-1.0752398921439585</v>
       </c>
       <c r="W53" s="1">
-        <v>3.3817778412555368</v>
+        <v>0.27840720124587692</v>
       </c>
       <c r="X53" t="s">
         <v>8</v>
       </c>
-      <c r="Y53" s="1">
-        <v>-5.4041243971395296</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>5.1124909281509554</v>
+      <c r="Y53">
+        <v>-1.2650729911678602</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0.5849049174880494</v>
       </c>
       <c r="AA53" t="s">
         <v>8</v>
@@ -6236,15 +6042,14 @@
       <c r="AC53" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -6329,18 +6134,17 @@
       <c r="AB54" t="s">
         <v>8</v>
       </c>
-      <c r="AC54" s="4">
-        <v>123.16666666666667</v>
-      </c>
+      <c r="AC54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -6408,7 +6212,7 @@
         <v>8</v>
       </c>
       <c r="W55" s="5">
-        <v>0.35287324549632615</v>
+        <v>2.1221502338496748E-2</v>
       </c>
       <c r="X55" t="s">
         <v>8</v>
@@ -6417,7 +6221,7 @@
         <v>8</v>
       </c>
       <c r="Z55" s="1">
-        <v>-3.3162648173534395</v>
+        <v>-0.61834141190222636</v>
       </c>
       <c r="AA55" s="1">
         <v>0</v>
@@ -6425,18 +6229,17 @@
       <c r="AB55" t="s">
         <v>8</v>
       </c>
-      <c r="AC55" s="4">
-        <v>341.875</v>
-      </c>
+      <c r="AC55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -6504,7 +6307,7 @@
         <v>8</v>
       </c>
       <c r="W56" s="5">
-        <v>0.74076958321576569</v>
+        <v>4.647717840273461E-2</v>
       </c>
       <c r="X56" t="s">
         <v>8</v>
@@ -6513,7 +6316,7 @@
         <v>8</v>
       </c>
       <c r="Z56" s="1">
-        <v>-4.5157648576727683</v>
+        <v>-0.87551028537908482</v>
       </c>
       <c r="AA56" s="1">
         <v>0</v>
@@ -6521,18 +6324,17 @@
       <c r="AB56" t="s">
         <v>8</v>
       </c>
-      <c r="AC56" s="4">
-        <v>323.25</v>
-      </c>
+      <c r="AC56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -6600,7 +6402,7 @@
         <v>8</v>
       </c>
       <c r="W57" s="5">
-        <v>1.1930930654564607</v>
+        <v>7.7276540762066234E-2</v>
       </c>
       <c r="X57" t="s">
         <v>8</v>
@@ -6609,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="Z57" s="1">
-        <v>-4.9592774776227735</v>
+        <v>-0.98208874484563313</v>
       </c>
       <c r="AA57" s="1">
         <v>0</v>
@@ -6617,18 +6419,17 @@
       <c r="AB57" t="s">
         <v>8</v>
       </c>
-      <c r="AC57" s="4">
-        <v>356.5</v>
-      </c>
+      <c r="AC57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -6696,7 +6497,7 @@
         <v>8</v>
       </c>
       <c r="W58" s="5">
-        <v>1.680620171323481</v>
+        <v>0.11289606589250957</v>
       </c>
       <c r="X58" t="s">
         <v>8</v>
@@ -6705,7 +6506,7 @@
         <v>8</v>
       </c>
       <c r="Z58" s="1">
-        <v>-5.7959035561648253</v>
+        <v>-1.1681752560443233</v>
       </c>
       <c r="AA58" s="1">
         <v>0</v>
@@ -6713,18 +6514,17 @@
       <c r="AB58" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="4">
-        <v>372.25</v>
-      </c>
+      <c r="AC58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -6792,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="W59" s="5">
-        <v>2.2992807751985631</v>
+        <v>0.16117127205970039</v>
       </c>
       <c r="X59" t="s">
         <v>8</v>
@@ -6801,7 +6601,7 @@
         <v>8</v>
       </c>
       <c r="Z59" s="1">
-        <v>-8.2553826304330293</v>
+        <v>-1.576605793464211</v>
       </c>
       <c r="AA59" s="1">
         <v>0</v>
@@ -6809,18 +6609,17 @@
       <c r="AB59" t="s">
         <v>8</v>
       </c>
-      <c r="AC59" s="4">
-        <v>375</v>
-      </c>
+      <c r="AC59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -6887,8 +6686,8 @@
       <c r="V60" t="s">
         <v>8</v>
       </c>
-      <c r="W60" s="5">
-        <v>2.2992807751985631</v>
+      <c r="W60" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X60" t="s">
         <v>8</v>
@@ -6897,7 +6696,7 @@
         <v>8</v>
       </c>
       <c r="Z60" s="1">
-        <v>-9.3440045157648584</v>
+        <v>-1.7725606805394332</v>
       </c>
       <c r="AA60" s="1">
         <v>0</v>
@@ -6905,18 +6704,17 @@
       <c r="AB60" t="s">
         <v>8</v>
       </c>
-      <c r="AC60" s="4">
-        <v>379.5</v>
-      </c>
+      <c r="AC60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -6983,8 +6781,8 @@
       <c r="V61" t="s">
         <v>8</v>
       </c>
-      <c r="W61" s="5">
-        <v>2.2992807751985631</v>
+      <c r="W61" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X61" t="s">
         <v>8</v>
@@ -6993,7 +6791,7 @@
         <v>8</v>
       </c>
       <c r="Z61" s="1">
-        <v>-9.7169583098137267</v>
+        <v>-1.8272124474495688</v>
       </c>
       <c r="AA61" s="1">
         <v>0</v>
@@ -7001,18 +6799,17 @@
       <c r="AB61" t="s">
         <v>8</v>
       </c>
-      <c r="AC61" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -7080,7 +6877,7 @@
         <v>8</v>
       </c>
       <c r="W62" s="5">
-        <v>4.7624020047848212</v>
+        <v>0.3742254989189967</v>
       </c>
       <c r="X62" t="s">
         <v>8</v>
@@ -7089,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="Z62" s="1">
-        <v>-9.9387146197887262</v>
+        <v>-1.8288566909905628</v>
       </c>
       <c r="AA62" s="1">
         <v>0</v>
@@ -7097,18 +6894,17 @@
       <c r="AB62" t="s">
         <v>8</v>
       </c>
-      <c r="AC62" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -7176,7 +6972,7 @@
         <v>8</v>
       </c>
       <c r="W63" s="5">
-        <v>4.898217010317083</v>
+        <v>0.38624123030931645</v>
       </c>
       <c r="X63" t="s">
         <v>8</v>
@@ -7185,7 +6981,7 @@
         <v>8</v>
       </c>
       <c r="Z63" s="3">
-        <v>-10.412466736553505</v>
+        <v>-1.9100255093417826</v>
       </c>
       <c r="AA63" s="1">
         <v>0</v>
@@ -7193,18 +6989,17 @@
       <c r="AB63" t="s">
         <v>8</v>
       </c>
-      <c r="AC63" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -7289,18 +7084,17 @@
       <c r="AB64" t="s">
         <v>8</v>
       </c>
-      <c r="AC64" s="3">
-        <v>41.833333333333329</v>
-      </c>
+      <c r="AC64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -7368,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="W65" s="5">
-        <v>0.12388762396096484</v>
+        <v>7.1363669297239921E-3</v>
       </c>
       <c r="X65" t="s">
         <v>8</v>
@@ -7377,7 +7171,7 @@
         <v>8</v>
       </c>
       <c r="Z65" s="1">
-        <v>-0.84670591081364499</v>
+        <v>-0.21878740344336167</v>
       </c>
       <c r="AA65" s="1">
         <v>0</v>
@@ -7385,18 +7179,17 @@
       <c r="AB65" t="s">
         <v>8</v>
       </c>
-      <c r="AC65" s="3">
-        <v>89.75</v>
-      </c>
+      <c r="AC65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -7464,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="W66" s="5">
-        <v>0.28741214839303875</v>
+        <v>1.7532757450234936E-2</v>
       </c>
       <c r="X66" t="s">
         <v>8</v>
@@ -7473,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="Z66" s="1">
-        <v>-1.5119748407386506</v>
+        <v>-0.4065169741788548</v>
       </c>
       <c r="AA66" s="1">
         <v>0</v>
@@ -7481,18 +7274,17 @@
       <c r="AB66" t="s">
         <v>8</v>
       </c>
-      <c r="AC66" s="3">
-        <v>93.25</v>
-      </c>
+      <c r="AC66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -7560,7 +7352,7 @@
         <v>8</v>
       </c>
       <c r="W67" s="5">
-        <v>0.48454423472758701</v>
+        <v>3.0555885189549322E-2</v>
       </c>
       <c r="X67" t="s">
         <v>8</v>
@@ -7569,7 +7361,7 @@
         <v>8</v>
       </c>
       <c r="Z67" s="1">
-        <v>-2.5804370615272969</v>
+        <v>-0.59234300032902709</v>
       </c>
       <c r="AA67" s="1">
         <v>0</v>
@@ -7577,18 +7369,17 @@
       <c r="AB67" t="s">
         <v>8</v>
       </c>
-      <c r="AC67" s="4">
-        <v>108.5</v>
-      </c>
+      <c r="AC67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -7656,7 +7447,7 @@
         <v>8</v>
       </c>
       <c r="W68" s="5">
-        <v>0.70982896249710392</v>
+        <v>4.6330547619066735E-2</v>
       </c>
       <c r="X68" t="s">
         <v>8</v>
@@ -7665,7 +7456,7 @@
         <v>8</v>
       </c>
       <c r="Z68" s="1">
-        <v>-2.0663656156761556</v>
+        <v>-0.57623300194378479</v>
       </c>
       <c r="AA68" s="1">
         <v>0</v>
@@ -7673,18 +7464,17 @@
       <c r="AB68" t="s">
         <v>8</v>
       </c>
-      <c r="AC68" s="4">
-        <v>122.75</v>
-      </c>
+      <c r="AC68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -7752,7 +7542,7 @@
         <v>8</v>
       </c>
       <c r="W69" s="5">
-        <v>1.053987464802018</v>
+        <v>7.2325760478158252E-2</v>
       </c>
       <c r="X69" t="s">
         <v>8</v>
@@ -7761,7 +7551,7 @@
         <v>8</v>
       </c>
       <c r="Z69" s="1">
-        <v>-3.689218611402306</v>
+        <v>-0.8810405833322279</v>
       </c>
       <c r="AA69" s="1">
         <v>0</v>
@@ -7769,18 +7559,17 @@
       <c r="AB69" t="s">
         <v>8</v>
       </c>
-      <c r="AC69" s="4">
-        <v>131.75</v>
-      </c>
+      <c r="AC69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -7847,8 +7636,8 @@
       <c r="V70" t="s">
         <v>8</v>
       </c>
-      <c r="W70" s="5">
-        <v>1.053987464802018</v>
+      <c r="W70" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X70" t="s">
         <v>8</v>
@@ -7857,7 +7646,7 @@
         <v>8</v>
       </c>
       <c r="Z70" s="1">
-        <v>-4.1327312313523112</v>
+        <v>-0.98254960300839522</v>
       </c>
       <c r="AA70" s="1">
         <v>0</v>
@@ -7865,18 +7654,17 @@
       <c r="AB70" t="s">
         <v>8</v>
       </c>
-      <c r="AC70" s="4">
-        <v>135</v>
-      </c>
+      <c r="AC70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -7943,8 +7731,8 @@
       <c r="V71" t="s">
         <v>8</v>
       </c>
-      <c r="W71" s="5">
-        <v>1.053987464802018</v>
+      <c r="W71" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X71" t="s">
         <v>8</v>
@@ -7953,7 +7741,7 @@
         <v>8</v>
       </c>
       <c r="Z71" s="1">
-        <v>-4.2335295540682205</v>
+        <v>-1.0178353084268181</v>
       </c>
       <c r="AA71" s="1">
         <v>0</v>
@@ -7961,18 +7749,17 @@
       <c r="AB71" t="s">
         <v>8</v>
       </c>
-      <c r="AC71" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -8040,7 +7827,7 @@
         <v>8</v>
       </c>
       <c r="W72" s="5">
-        <v>3.4493437704008181</v>
+        <v>0.27227783428482388</v>
       </c>
       <c r="X72" t="s">
         <v>8</v>
@@ -8049,7 +7836,7 @@
         <v>8</v>
       </c>
       <c r="Z72" s="1">
-        <v>-5.0701556326102741</v>
+        <v>-1.1265421186890963</v>
       </c>
       <c r="AA72" s="1">
         <v>0</v>
@@ -8057,18 +7844,17 @@
       <c r="AB72" t="s">
         <v>8</v>
       </c>
-      <c r="AC72" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -8136,7 +7922,7 @@
         <v>8</v>
       </c>
       <c r="W73" s="5">
-        <v>3.5683508919954057</v>
+        <v>0.28243652893105342</v>
       </c>
       <c r="X73" t="s">
         <v>8</v>
@@ -8145,7 +7931,7 @@
         <v>8</v>
       </c>
       <c r="Z73" s="1">
-        <v>-5.2515926134989126</v>
+        <v>-1.1710920731122092</v>
       </c>
       <c r="AA73" s="1">
         <v>0</v>
@@ -8153,18 +7939,17 @@
       <c r="AB73" t="s">
         <v>8</v>
       </c>
-      <c r="AC73" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -8249,18 +8034,17 @@
       <c r="AB74" t="s">
         <v>8</v>
       </c>
-      <c r="AC74" s="3">
-        <v>21.65</v>
-      </c>
+      <c r="AC74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -8328,7 +8112,7 @@
         <v>8</v>
       </c>
       <c r="W75" s="5">
-        <v>7.0870884719990271E-2</v>
+        <v>4.4734604172160857E-3</v>
       </c>
       <c r="X75" t="s">
         <v>8</v>
@@ -8337,7 +8121,7 @@
         <v>8</v>
       </c>
       <c r="Z75" s="1">
-        <v>-1.0079832271590998</v>
+        <v>-0.2296476262354028</v>
       </c>
       <c r="AA75" s="1">
         <v>0</v>
@@ -8345,18 +8129,17 @@
       <c r="AB75" t="s">
         <v>8</v>
       </c>
-      <c r="AC75" s="3">
-        <v>11.524999999999999</v>
-      </c>
+      <c r="AC75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -8424,7 +8207,7 @@
         <v>8</v>
       </c>
       <c r="W76" s="5">
-        <v>0.2122105614891806</v>
+        <v>1.4022733104372048E-2</v>
       </c>
       <c r="X76" t="s">
         <v>8</v>
@@ -8433,7 +8216,7 @@
         <v>8</v>
       </c>
       <c r="Z76" s="1">
-        <v>-1.471655511652286</v>
+        <v>-0.36045119521408786</v>
       </c>
       <c r="AA76" s="1">
         <v>0</v>
@@ -8441,18 +8224,17 @@
       <c r="AB76" t="s">
         <v>8</v>
       </c>
-      <c r="AC76" s="3">
-        <v>10.225000000000001</v>
-      </c>
+      <c r="AC76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -8520,7 +8302,7 @@
         <v>8</v>
       </c>
       <c r="W77" s="5">
-        <v>0.37119307993589989</v>
+        <v>2.5309950907185692E-2</v>
       </c>
       <c r="X77" t="s">
         <v>8</v>
@@ -8537,18 +8319,17 @@
       <c r="AB77" t="s">
         <v>8</v>
       </c>
-      <c r="AC77" s="1">
-        <v>9.0749999999999993</v>
-      </c>
+      <c r="AC77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -8616,7 +8397,7 @@
         <v>8</v>
       </c>
       <c r="W78" s="5">
-        <v>0.54187321271346456</v>
+        <v>3.8367801086886061E-2</v>
       </c>
       <c r="X78" t="s">
         <v>8</v>
@@ -8625,7 +8406,7 @@
         <v>8</v>
       </c>
       <c r="Z78" s="1">
-        <v>-1.76397064752842</v>
+        <v>-0.53330306221694113</v>
       </c>
       <c r="AA78" s="1">
         <v>0</v>
@@ -8633,18 +8414,17 @@
       <c r="AB78" t="s">
         <v>8</v>
       </c>
-      <c r="AC78" s="3">
-        <v>10.324999999999999</v>
-      </c>
+      <c r="AC78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -8712,7 +8492,7 @@
         <v>8</v>
       </c>
       <c r="W79" s="5">
-        <v>0.75228461465018082</v>
+        <v>5.5512502076889118E-2</v>
       </c>
       <c r="X79" t="s">
         <v>8</v>
@@ -8721,7 +8501,7 @@
         <v>8</v>
       </c>
       <c r="Z79" s="1">
-        <v>-2.7618740424159336</v>
+        <v>-0.7428532650936398</v>
       </c>
       <c r="AA79" s="1">
         <v>0</v>
@@ -8729,18 +8509,17 @@
       <c r="AB79" t="s">
         <v>8</v>
       </c>
-      <c r="AC79" s="3">
-        <v>10.375</v>
-      </c>
+      <c r="AC79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -8807,8 +8586,8 @@
       <c r="V80" t="s">
         <v>8</v>
       </c>
-      <c r="W80" s="5">
-        <v>0.75228461465018082</v>
+      <c r="W80" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X80" t="s">
         <v>8</v>
@@ -8817,7 +8596,7 @@
         <v>8</v>
       </c>
       <c r="Z80" s="1">
-        <v>-2.6207563906136597</v>
+        <v>-0.78357910056379565</v>
       </c>
       <c r="AA80" s="1">
         <v>0</v>
@@ -8825,18 +8604,17 @@
       <c r="AB80" t="s">
         <v>8</v>
       </c>
-      <c r="AC80" s="3">
-        <v>9.9749999999999996</v>
-      </c>
+      <c r="AC80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -8903,8 +8681,8 @@
       <c r="V81" t="s">
         <v>8</v>
       </c>
-      <c r="W81" s="5">
-        <v>0.75228461465018082</v>
+      <c r="W81" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X81" t="s">
         <v>8</v>
@@ -8913,7 +8691,7 @@
         <v>8</v>
       </c>
       <c r="Z81" s="1">
-        <v>-3.013869849205709</v>
+        <v>-0.8433604191985854</v>
       </c>
       <c r="AA81" s="1">
         <v>0</v>
@@ -8921,18 +8699,17 @@
       <c r="AB81" t="s">
         <v>8</v>
       </c>
-      <c r="AC81" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -9000,7 +8777,7 @@
         <v>8</v>
       </c>
       <c r="W82" s="5">
-        <v>2.8523223169925469</v>
+        <v>0.24239211748151904</v>
       </c>
       <c r="X82" t="s">
         <v>8</v>
@@ -9009,7 +8786,7 @@
         <v>8</v>
       </c>
       <c r="Z82" s="1">
-        <v>-3.5783404564148045</v>
+        <v>-0.89315189898250791</v>
       </c>
       <c r="AA82" s="1">
         <v>0</v>
@@ -9017,18 +8794,17 @@
       <c r="AB82" t="s">
         <v>8</v>
       </c>
-      <c r="AC82" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -9096,7 +8872,7 @@
         <v>8</v>
       </c>
       <c r="W83" s="5">
-        <v>2.9283321922244223</v>
+        <v>0.24930127236065486</v>
       </c>
       <c r="X83" t="s">
         <v>8</v>
@@ -9105,7 +8881,7 @@
         <v>8</v>
       </c>
       <c r="Z83" s="1">
-        <v>-3.5481009596000321</v>
+        <v>-0.91480557826057374</v>
       </c>
       <c r="AA83" s="1">
         <v>0</v>
@@ -9113,18 +8889,17 @@
       <c r="AB83" t="s">
         <v>8</v>
       </c>
-      <c r="AC83" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -9209,18 +8984,17 @@
       <c r="AB84" t="s">
         <v>8</v>
       </c>
-      <c r="AC84" s="3">
-        <v>21.5</v>
-      </c>
+      <c r="AC84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -9288,7 +9062,7 @@
         <v>8</v>
       </c>
       <c r="W85" s="5">
-        <v>7.1689430514098859E-2</v>
+        <v>4.0262950537242395E-3</v>
       </c>
       <c r="X85" t="s">
         <v>8</v>
@@ -9297,7 +9071,7 @@
         <v>8</v>
       </c>
       <c r="Z85" s="1">
-        <v>-0.46367228449318532</v>
+        <v>-0.14937815666913234</v>
       </c>
       <c r="AA85" s="1">
         <v>0</v>
@@ -9305,18 +9079,17 @@
       <c r="AB85" t="s">
         <v>8</v>
       </c>
-      <c r="AC85" s="1">
-        <v>9.9375</v>
-      </c>
+      <c r="AC85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -9384,7 +9157,7 @@
         <v>8</v>
       </c>
       <c r="W86" s="5">
-        <v>0.19727363936661213</v>
+        <v>1.1753743878646148E-2</v>
       </c>
       <c r="X86" t="s">
         <v>8</v>
@@ -9393,7 +9166,7 @@
         <v>8</v>
       </c>
       <c r="Z86" s="1">
-        <v>-1.4918151761954679</v>
+        <v>-0.38492677111903029</v>
       </c>
       <c r="AA86" s="1">
         <v>0</v>
@@ -9401,18 +9174,17 @@
       <c r="AB86" t="s">
         <v>8</v>
       </c>
-      <c r="AC86" s="1">
-        <v>9.1</v>
-      </c>
+      <c r="AC86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -9480,7 +9252,7 @@
         <v>8</v>
       </c>
       <c r="W87" s="5">
-        <v>0.33585200626394734</v>
+        <v>2.0776490431106839E-2</v>
       </c>
       <c r="X87" t="s">
         <v>8</v>
@@ -9489,7 +9261,7 @@
         <v>8</v>
       </c>
       <c r="Z87" s="1">
-        <v>-1.955487460688655</v>
+        <v>-0.4977869277171374</v>
       </c>
       <c r="AA87" s="1">
         <v>0</v>
@@ -9497,18 +9269,17 @@
       <c r="AB87" t="s">
         <v>8</v>
       </c>
-      <c r="AC87" s="1">
-        <v>7.5500000000000007</v>
-      </c>
+      <c r="AC87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -9576,7 +9347,7 @@
         <v>8</v>
       </c>
       <c r="W88" s="5">
-        <v>0.47830359235746567</v>
+        <v>3.0677985742677299E-2</v>
       </c>
       <c r="X88" t="s">
         <v>8</v>
@@ -9585,7 +9356,7 @@
         <v>8</v>
       </c>
       <c r="Z88" s="1">
-        <v>-1.905088299330699</v>
+        <v>-0.55305985128143009</v>
       </c>
       <c r="AA88" s="1">
         <v>4.4856079967441759E-2</v>
@@ -9593,18 +9364,17 @@
       <c r="AB88" t="s">
         <v>8</v>
       </c>
-      <c r="AC88" s="1">
-        <v>9.9250000000000007</v>
-      </c>
+      <c r="AC88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -9672,7 +9442,7 @@
         <v>8</v>
       </c>
       <c r="W89" s="5">
-        <v>0.64062594176360554</v>
+        <v>4.2764425333896995E-2</v>
       </c>
       <c r="X89" t="s">
         <v>8</v>
@@ -9681,7 +9451,7 @@
         <v>8</v>
       </c>
       <c r="Z89" s="1">
-        <v>-2.8828320296750256</v>
+        <v>-0.76007533426293816</v>
       </c>
       <c r="AA89" s="1">
         <v>4.7313577425019848E-2</v>
@@ -9689,18 +9459,17 @@
       <c r="AB89" t="s">
         <v>8</v>
       </c>
-      <c r="AC89" s="3">
-        <v>10.724999999999998</v>
-      </c>
+      <c r="AC89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -9767,8 +9536,8 @@
       <c r="V90" t="s">
         <v>8</v>
       </c>
-      <c r="W90" s="5">
-        <v>0.64062594176360554</v>
+      <c r="W90" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X90" t="s">
         <v>8</v>
@@ -9777,7 +9546,7 @@
         <v>8</v>
       </c>
       <c r="Z90" s="1">
-        <v>-2.580437061527296</v>
+        <v>-0.77057488544934005</v>
       </c>
       <c r="AA90" s="1">
         <v>3.0462166287341542E-2</v>
@@ -9785,18 +9554,17 @@
       <c r="AB90" t="s">
         <v>8</v>
       </c>
-      <c r="AC90" s="3">
-        <v>10.399999999999999</v>
-      </c>
+      <c r="AC90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -9863,8 +9631,8 @@
       <c r="V91" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="5">
-        <v>0.64062594176360554</v>
+      <c r="W91" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="X91" t="s">
         <v>8</v>
@@ -9873,7 +9641,7 @@
         <v>8</v>
       </c>
       <c r="Z91" s="1">
-        <v>-3.3162648173534386</v>
+        <v>-0.88698164616957142</v>
       </c>
       <c r="AA91" s="1">
         <v>3.6173822466218086E-2</v>
@@ -9881,18 +9649,17 @@
       <c r="AB91" t="s">
         <v>8</v>
       </c>
-      <c r="AC91" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -9960,7 +9727,7 @@
         <v>8</v>
       </c>
       <c r="W92" s="5">
-        <v>2.375237311606762</v>
+        <v>0.18588138857775871</v>
       </c>
       <c r="X92" t="s">
         <v>8</v>
@@ -9969,7 +9736,7 @@
         <v>8</v>
       </c>
       <c r="Z92" s="1">
-        <v>-3.0642690105636641</v>
+        <v>-0.76503141386578322</v>
       </c>
       <c r="AA92" s="1">
         <v>0</v>
@@ -9977,18 +9744,17 @@
       <c r="AB92" t="s">
         <v>8</v>
       </c>
-      <c r="AC92" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -10056,7 +9822,7 @@
         <v>8</v>
       </c>
       <c r="W93" s="5">
-        <v>2.4397034344991653</v>
+        <v>0.19133136996318217</v>
       </c>
       <c r="X93" t="s">
         <v>8</v>
@@ -10065,7 +9831,7 @@
         <v>8</v>
       </c>
       <c r="Z93" s="1">
-        <v>-3.0743488428352546</v>
+        <v>-0.7887183981949768</v>
       </c>
       <c r="AA93" s="1">
         <v>3.3716989077489989E-2</v>
@@ -10073,18 +9839,17 @@
       <c r="AB93" t="s">
         <v>8</v>
       </c>
-      <c r="AC93" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -10169,18 +9934,17 @@
       <c r="AB94" t="s">
         <v>8</v>
       </c>
-      <c r="AC94" s="3">
-        <v>24.225000000000001</v>
-      </c>
+      <c r="AC94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -10265,18 +10029,17 @@
       <c r="AB95" t="s">
         <v>8</v>
       </c>
-      <c r="AC95" s="3">
-        <v>72.72</v>
-      </c>
+      <c r="AC95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -10361,18 +10124,17 @@
       <c r="AB96" t="s">
         <v>8</v>
       </c>
-      <c r="AC96" s="3">
-        <v>89.25</v>
-      </c>
+      <c r="AC96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -10457,18 +10219,17 @@
       <c r="AB97" t="s">
         <v>8</v>
       </c>
-      <c r="AC97" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -10553,18 +10314,17 @@
       <c r="AB98" t="s">
         <v>8</v>
       </c>
-      <c r="AC98" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -10649,18 +10409,17 @@
       <c r="AB99" t="s">
         <v>8</v>
       </c>
-      <c r="AC99" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -10745,18 +10504,17 @@
       <c r="AB100" t="s">
         <v>8</v>
       </c>
-      <c r="AC100" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -10841,18 +10599,17 @@
       <c r="AB101" t="s">
         <v>8</v>
       </c>
-      <c r="AC101" s="3">
-        <v>11.2</v>
-      </c>
+      <c r="AC101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
-      <c r="AK101" s="1"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -10937,18 +10694,17 @@
       <c r="AB102" t="s">
         <v>8</v>
       </c>
-      <c r="AC102" s="3">
-        <v>71.875</v>
-      </c>
+      <c r="AC102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
-      <c r="AK102" s="1"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -11033,18 +10789,17 @@
       <c r="AB103" t="s">
         <v>8</v>
       </c>
-      <c r="AC103" s="3">
-        <v>85</v>
-      </c>
+      <c r="AC103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
-      <c r="AJ103" s="1"/>
-      <c r="AK103" s="1"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -11129,18 +10884,17 @@
       <c r="AB104" t="s">
         <v>8</v>
       </c>
-      <c r="AC104" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -11225,18 +10979,17 @@
       <c r="AB105" t="s">
         <v>8</v>
       </c>
-      <c r="AC105" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -11321,18 +11074,17 @@
       <c r="AB106" t="s">
         <v>8</v>
       </c>
-      <c r="AC106" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-      <c r="AK106" s="1"/>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -11417,18 +11169,17 @@
       <c r="AB107" t="s">
         <v>8</v>
       </c>
-      <c r="AC107" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -11513,18 +11264,17 @@
       <c r="AB108" t="s">
         <v>8</v>
       </c>
-      <c r="AC108" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
-      <c r="AJ108" s="1"/>
-      <c r="AK108" s="1"/>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -11609,18 +11359,17 @@
       <c r="AB109" t="s">
         <v>8</v>
       </c>
-      <c r="AC109" s="3">
-        <v>16.784999999999997</v>
-      </c>
+      <c r="AC109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
-      <c r="AJ109" s="1"/>
-      <c r="AK109" s="1"/>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -11705,18 +11454,17 @@
       <c r="AB110" t="s">
         <v>8</v>
       </c>
-      <c r="AC110" s="3">
-        <v>52.25</v>
-      </c>
+      <c r="AC110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
-      <c r="AJ110" s="1"/>
-      <c r="AK110" s="1"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -11801,18 +11549,17 @@
       <c r="AB111" t="s">
         <v>8</v>
       </c>
-      <c r="AC111" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
-      <c r="AJ111" s="1"/>
-      <c r="AK111" s="1"/>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -11897,18 +11644,17 @@
       <c r="AB112" t="s">
         <v>8</v>
       </c>
-      <c r="AC112" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -11993,18 +11739,17 @@
       <c r="AB113" t="s">
         <v>8</v>
       </c>
-      <c r="AC113" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
-      <c r="AJ113" s="1"/>
-      <c r="AK113" s="1"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -12089,18 +11834,17 @@
       <c r="AB114" t="s">
         <v>8</v>
       </c>
-      <c r="AC114" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
-      <c r="AJ114" s="1"/>
-      <c r="AK114" s="1"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -12185,18 +11929,17 @@
       <c r="AB115" t="s">
         <v>8</v>
       </c>
-      <c r="AC115" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -12281,18 +12024,17 @@
       <c r="AB116" t="s">
         <v>8</v>
       </c>
-      <c r="AC116" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
-      <c r="AJ116" s="1"/>
-      <c r="AK116" s="1"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -12377,18 +12119,17 @@
       <c r="AB117" t="s">
         <v>8</v>
       </c>
-      <c r="AC117" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
-      <c r="AK117" s="1"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>151</v>
       </c>
@@ -12473,18 +12214,17 @@
       <c r="AB118" t="s">
         <v>8</v>
       </c>
-      <c r="AC118" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
-      <c r="AJ118" s="1"/>
-      <c r="AK118" s="1"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -12569,18 +12309,17 @@
       <c r="AB119" t="s">
         <v>8</v>
       </c>
-      <c r="AC119" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -12665,18 +12404,17 @@
       <c r="AB120" t="s">
         <v>8</v>
       </c>
-      <c r="AC120" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
-      <c r="AJ120" s="1"/>
-      <c r="AK120" s="1"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -12761,18 +12499,17 @@
       <c r="AB121" t="s">
         <v>8</v>
       </c>
-      <c r="AC121" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
-      <c r="AJ121" s="1"/>
-      <c r="AK121" s="1"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -12857,18 +12594,17 @@
       <c r="AB122" s="1">
         <v>0</v>
       </c>
-      <c r="AC122" s="4">
-        <v>358.33333333333331</v>
-      </c>
+      <c r="AC122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
-      <c r="AJ122" s="1"/>
-      <c r="AK122" s="1"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -12951,20 +12687,19 @@
         <v>8</v>
       </c>
       <c r="AB123" s="1">
-        <v>-0.39034037680857736</v>
-      </c>
-      <c r="AC123" s="4">
-        <v>149.5</v>
-      </c>
+        <v>-0.14710579269456847</v>
+      </c>
+      <c r="AC123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
-      <c r="AJ123" s="1"/>
-      <c r="AK123" s="1"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -13047,20 +12782,19 @@
         <v>8</v>
       </c>
       <c r="AB124" s="1">
-        <v>-0.65056729468096108</v>
-      </c>
-      <c r="AC124" s="3">
-        <v>77.75</v>
-      </c>
+        <v>-0.26026409476731316</v>
+      </c>
+      <c r="AC124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
-      <c r="AJ124" s="1"/>
-      <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -13145,18 +12879,17 @@
       <c r="AB125" t="s">
         <v>8</v>
       </c>
-      <c r="AC125" s="3">
-        <v>93.25</v>
-      </c>
+      <c r="AC125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
-      <c r="AJ125" s="1"/>
-      <c r="AK125" s="1"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -13239,20 +12972,19 @@
         <v>8</v>
       </c>
       <c r="AB126" s="1">
-        <v>-1.1710211304257303</v>
-      </c>
-      <c r="AC126" s="4">
-        <v>438.25</v>
-      </c>
+        <v>-0.46550092378382302</v>
+      </c>
+      <c r="AC126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
-      <c r="AJ126" s="1"/>
-      <c r="AK126" s="1"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -13335,20 +13067,19 @@
         <v>8</v>
       </c>
       <c r="AB127" s="1">
-        <v>-1.8215884251066932</v>
-      </c>
-      <c r="AC127" s="4">
-        <v>152.25</v>
-      </c>
+        <v>-0.6528910720162886</v>
+      </c>
+      <c r="AC127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
-      <c r="AJ127" s="1"/>
-      <c r="AK127" s="1"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -13431,20 +13162,19 @@
         <v>8</v>
       </c>
       <c r="AB128" s="1">
-        <v>-2.2119288019152696</v>
-      </c>
-      <c r="AC128" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.71108677022512889</v>
+      </c>
+      <c r="AC128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
-      <c r="AJ128" s="1"/>
-      <c r="AK128" s="1"/>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -13527,20 +13257,19 @@
         <v>8</v>
       </c>
       <c r="AB129" s="1">
-        <v>-2.7909336941813256</v>
-      </c>
-      <c r="AC129" s="4">
-        <v>115.75999999999999</v>
-      </c>
+        <v>-0.79582822218888138</v>
+      </c>
+      <c r="AC129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
-      <c r="AJ129" s="1"/>
-      <c r="AK129" s="1"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -13623,20 +13352,19 @@
         <v>8</v>
       </c>
       <c r="AB130" s="1">
-        <v>-2.602269178723847</v>
-      </c>
-      <c r="AC130" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.83894882278862037</v>
+      </c>
+      <c r="AC130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
-      <c r="AJ130" s="1"/>
-      <c r="AK130" s="1"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -13721,18 +13449,17 @@
       <c r="AB131" s="1">
         <v>0</v>
       </c>
-      <c r="AC131" s="4">
-        <v>676.66666666666663</v>
-      </c>
+      <c r="AC131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
-      <c r="AJ131" s="1"/>
-      <c r="AK131" s="1"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -13815,20 +13542,19 @@
         <v>8</v>
       </c>
       <c r="AB132" s="1">
-        <v>-0.65707296762777023</v>
-      </c>
-      <c r="AC132" s="4">
-        <v>115.25</v>
-      </c>
+        <v>-0.17309340503916015</v>
+      </c>
+      <c r="AC132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -13911,20 +13637,19 @@
         <v>8</v>
       </c>
       <c r="AB133" s="1">
-        <v>-0.27323826376600291</v>
-      </c>
-      <c r="AC133" s="3">
-        <v>73.75</v>
-      </c>
+        <v>-0.16531458004524557</v>
+      </c>
+      <c r="AC133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -14009,18 +13734,17 @@
       <c r="AB134" t="s">
         <v>8</v>
       </c>
-      <c r="AC134" s="3">
-        <v>65</v>
-      </c>
+      <c r="AC134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
-      <c r="AJ134" s="1"/>
-      <c r="AK134" s="1"/>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -14103,20 +13827,19 @@
         <v>8</v>
       </c>
       <c r="AB135" s="1">
-        <v>0.23420422608514802</v>
-      </c>
-      <c r="AC135" s="4">
-        <v>406.75</v>
-      </c>
+        <v>-0.18764879578006011</v>
+      </c>
+      <c r="AC135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
-      <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -14199,20 +13922,19 @@
         <v>8</v>
       </c>
       <c r="AB136" s="1">
-        <v>-0.70261267825543872</v>
-      </c>
-      <c r="AC136" s="4">
-        <v>453.25</v>
-      </c>
+        <v>-0.39730849786044209</v>
+      </c>
+      <c r="AC136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
-      <c r="AJ136" s="1"/>
-      <c r="AK136" s="1"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -14295,20 +14017,19 @@
         <v>8</v>
       </c>
       <c r="AB137" s="1">
-        <v>-1.0929530550640152</v>
-      </c>
-      <c r="AC137" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.45492870527588369</v>
+      </c>
+      <c r="AC137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
-      <c r="AJ137" s="1"/>
-      <c r="AK137" s="1"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -14391,20 +14112,19 @@
         <v>8</v>
       </c>
       <c r="AB138" s="1">
-        <v>-1.0148849797022983</v>
-      </c>
-      <c r="AC138" s="4">
-        <v>106</v>
-      </c>
+        <v>-0.4446977346613834</v>
+      </c>
+      <c r="AC138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -14487,20 +14207,19 @@
         <v>8</v>
       </c>
       <c r="AB139" s="1">
-        <v>-1.5678671801811168</v>
-      </c>
-      <c r="AC139" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.58548433734822369</v>
+      </c>
+      <c r="AC139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
-      <c r="AJ139" s="1"/>
-      <c r="AK139" s="1"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -14585,18 +14304,17 @@
       <c r="AB140" s="1">
         <v>0</v>
       </c>
-      <c r="AC140" s="4">
-        <v>681.66666666666674</v>
-      </c>
+      <c r="AC140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
-      <c r="AK140" s="1"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -14679,20 +14397,19 @@
         <v>8</v>
       </c>
       <c r="AB141" s="1">
-        <v>-0.65056729468096197</v>
-      </c>
-      <c r="AC141" s="3">
-        <v>36.5</v>
-      </c>
+        <v>-0.18435103954822596</v>
+      </c>
+      <c r="AC141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
-      <c r="AJ141" s="1"/>
-      <c r="AK141" s="1"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -14775,20 +14492,19 @@
         <v>8</v>
       </c>
       <c r="AB142" s="1">
-        <v>-0.2602269178723855</v>
-      </c>
-      <c r="AC142" s="1">
-        <v>5</v>
-      </c>
+        <v>-0.19049391880360389</v>
+      </c>
+      <c r="AC142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
-      <c r="AK142" s="1"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -14871,20 +14587,19 @@
         <v>8</v>
       </c>
       <c r="AB143" s="1">
-        <v>-1.0409076714895393</v>
-      </c>
-      <c r="AC143" s="1">
-        <v>0</v>
-      </c>
+        <v>-0.37258179231037469</v>
+      </c>
+      <c r="AC143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="1"/>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -14967,20 +14682,19 @@
         <v>8</v>
       </c>
       <c r="AB144" s="1">
-        <v>-0.91079421255334747</v>
-      </c>
-      <c r="AC144" s="4">
-        <v>373.5</v>
-      </c>
+        <v>-0.4197849697464342</v>
+      </c>
+      <c r="AC144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
-      <c r="AJ144" s="1"/>
-      <c r="AK144" s="1"/>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -15063,20 +14777,19 @@
         <v>8</v>
       </c>
       <c r="AB145" s="1">
-        <v>-1.4963047777662126</v>
-      </c>
-      <c r="AC145" s="3">
-        <v>15</v>
-      </c>
+        <v>-0.57846524019587164</v>
+      </c>
+      <c r="AC145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
-      <c r="AJ145" s="1"/>
-      <c r="AK145" s="1"/>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -15159,20 +14872,19 @@
         <v>8</v>
       </c>
       <c r="AB146" s="1">
-        <v>-1.6914749661705013</v>
-      </c>
-      <c r="AC146" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.60685180854440612</v>
+      </c>
+      <c r="AC146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
       <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -15255,20 +14967,19 @@
         <v>8</v>
       </c>
       <c r="AB147" s="1">
-        <v>-1.88664515457479</v>
-      </c>
-      <c r="AC147" s="1">
-        <v>4.12</v>
-      </c>
+        <v>-0.65663671562985204</v>
+      </c>
+      <c r="AC147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
       <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -15351,20 +15062,19 @@
         <v>8</v>
       </c>
       <c r="AB148" s="1">
-        <v>-2.1468720724471746</v>
-      </c>
-      <c r="AC148" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.7489750106635944</v>
+      </c>
+      <c r="AC148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
       <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -15449,18 +15159,17 @@
       <c r="AB149" s="1">
         <v>0</v>
       </c>
-      <c r="AC149" s="4">
-        <v>715.83333333333326</v>
-      </c>
+      <c r="AC149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -15543,20 +15252,19 @@
         <v>8</v>
       </c>
       <c r="AB150" s="1">
-        <v>0.13011345893619275</v>
-      </c>
-      <c r="AC150" s="4">
-        <v>383.5</v>
-      </c>
+        <v>-5.3669366125930651E-2</v>
+      </c>
+      <c r="AC150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
-      <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -15639,20 +15347,19 @@
         <v>8</v>
       </c>
       <c r="AB151" s="1">
-        <v>-0.32528364734048054</v>
-      </c>
-      <c r="AC151" s="4">
-        <v>720</v>
-      </c>
+        <v>-0.20898721845663504</v>
+      </c>
+      <c r="AC151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
-      <c r="AJ151" s="1"/>
-      <c r="AK151" s="1"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>185</v>
       </c>
@@ -15735,20 +15442,19 @@
         <v>8</v>
       </c>
       <c r="AB152" s="1">
-        <v>-0.52045383574476922</v>
-      </c>
-      <c r="AC152" s="1">
-        <v>0</v>
-      </c>
+        <v>-0.30520410616191773</v>
+      </c>
+      <c r="AC152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
-      <c r="AJ152" s="1"/>
-      <c r="AK152" s="1"/>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>186</v>
       </c>
@@ -15831,20 +15537,19 @@
         <v>8</v>
       </c>
       <c r="AB153" s="1">
-        <v>-0.32528364734048054</v>
-      </c>
-      <c r="AC153" s="3">
-        <v>22</v>
-      </c>
+        <v>-0.32654252883849244</v>
+      </c>
+      <c r="AC153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
-      <c r="AJ153" s="1"/>
-      <c r="AK153" s="1"/>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -15927,20 +15632,19 @@
         <v>8</v>
       </c>
       <c r="AB154" s="1">
-        <v>-0.84573748308525065</v>
-      </c>
-      <c r="AC154" s="3">
-        <v>13.75</v>
-      </c>
+        <v>-0.48276564758577867</v>
+      </c>
+      <c r="AC154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
-      <c r="AK154" s="1"/>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -16023,20 +15727,19 @@
         <v>8</v>
       </c>
       <c r="AB155" s="1">
-        <v>-1.2360778598938271</v>
-      </c>
-      <c r="AC155" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.53940946050904981</v>
+      </c>
+      <c r="AC155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
-      <c r="AK155" s="1"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -16119,20 +15822,19 @@
         <v>8</v>
       </c>
       <c r="AB156" s="1">
-        <v>-1.4312480482981158</v>
-      </c>
-      <c r="AC156" s="1">
-        <v>0</v>
-      </c>
+        <v>-0.56773259840848955</v>
+      </c>
+      <c r="AC156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
       <c r="AI156" s="1"/>
-      <c r="AJ156" s="1"/>
-      <c r="AK156" s="1"/>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>190</v>
       </c>
@@ -16215,20 +15917,19 @@
         <v>8</v>
       </c>
       <c r="AB157" s="1">
-        <v>-1.5613615072343077</v>
-      </c>
-      <c r="AC157" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>-0.64883901452085035</v>
+      </c>
+      <c r="AC157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
       <c r="AI157" s="1"/>
-      <c r="AJ157" s="1"/>
-      <c r="AK157" s="1"/>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -16313,18 +16014,17 @@
       <c r="AB158" t="s">
         <v>8</v>
       </c>
-      <c r="AC158" s="3">
-        <v>54.125</v>
-      </c>
+      <c r="AC158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
-      <c r="AJ158" s="1"/>
-      <c r="AK158" s="1"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -16409,18 +16109,17 @@
       <c r="AB159" t="s">
         <v>8</v>
       </c>
-      <c r="AC159" s="3">
-        <v>67.25</v>
-      </c>
+      <c r="AC159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
-      <c r="AJ159" s="1"/>
-      <c r="AK159" s="1"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>193</v>
       </c>
@@ -16505,18 +16204,17 @@
       <c r="AB160" t="s">
         <v>8</v>
       </c>
-      <c r="AC160" s="3">
-        <v>70.25</v>
-      </c>
+      <c r="AC160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
-      <c r="AJ160" s="1"/>
-      <c r="AK160" s="1"/>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -16601,18 +16299,17 @@
       <c r="AB161" t="s">
         <v>8</v>
       </c>
-      <c r="AC161" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
-      <c r="AJ161" s="1"/>
-      <c r="AK161" s="1"/>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -16697,18 +16394,17 @@
       <c r="AB162" t="s">
         <v>8</v>
       </c>
-      <c r="AC162" s="3">
-        <v>33.924999999999997</v>
-      </c>
+      <c r="AC162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
-      <c r="AJ162" s="1"/>
-      <c r="AK162" s="1"/>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>196</v>
       </c>
@@ -16793,18 +16489,17 @@
       <c r="AB163" t="s">
         <v>8</v>
       </c>
-      <c r="AC163" s="3">
-        <v>66.75</v>
-      </c>
+      <c r="AC163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
-      <c r="AJ163" s="1"/>
-      <c r="AK163" s="1"/>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -16889,18 +16584,17 @@
       <c r="AB164" t="s">
         <v>8</v>
       </c>
-      <c r="AC164" s="3">
-        <v>91.25</v>
-      </c>
+      <c r="AC164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
-      <c r="AJ164" s="1"/>
-      <c r="AK164" s="1"/>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -16985,18 +16679,17 @@
       <c r="AB165" t="s">
         <v>8</v>
       </c>
-      <c r="AC165" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
-      <c r="AJ165" s="1"/>
-      <c r="AK165" s="1"/>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -17081,18 +16774,17 @@
       <c r="AB166" t="s">
         <v>8</v>
       </c>
-      <c r="AC166" s="3">
-        <v>10.25</v>
-      </c>
+      <c r="AC166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
-      <c r="AK166" s="1"/>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -17177,18 +16869,17 @@
       <c r="AB167" t="s">
         <v>8</v>
       </c>
-      <c r="AC167" s="1">
-        <v>3.75</v>
-      </c>
+      <c r="AC167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -17273,18 +16964,17 @@
       <c r="AB168" t="s">
         <v>8</v>
       </c>
-      <c r="AC168" s="3">
-        <v>12.75</v>
-      </c>
+      <c r="AC168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1"/>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
-      <c r="AJ168" s="1"/>
-      <c r="AK168" s="1"/>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -17369,18 +17059,17 @@
       <c r="AB169" t="s">
         <v>8</v>
       </c>
-      <c r="AC169" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
-      <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -17465,18 +17154,17 @@
       <c r="AB170" t="s">
         <v>8</v>
       </c>
-      <c r="AC170" s="3">
-        <v>19</v>
-      </c>
+      <c r="AC170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
-      <c r="AK170" s="1"/>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -17561,18 +17249,17 @@
       <c r="AB171" t="s">
         <v>8</v>
       </c>
-      <c r="AC171" s="1">
-        <v>2.7500000000000004</v>
-      </c>
+      <c r="AC171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -17657,18 +17344,17 @@
       <c r="AB172" t="s">
         <v>8</v>
       </c>
-      <c r="AC172" s="1">
-        <v>0</v>
-      </c>
+      <c r="AC172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
-      <c r="AJ172" s="1"/>
-      <c r="AK172" s="1"/>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -17753,38 +17439,34 @@
       <c r="AB173" t="s">
         <v>8</v>
       </c>
-      <c r="AC173" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
-      <c r="AJ173" s="1"/>
-      <c r="AK173" s="1"/>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
-      <c r="AJ174" s="1"/>
-      <c r="AK174" s="1"/>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
-      <c r="AJ175" s="1"/>
-      <c r="AK175" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>